--- a/docs/StructureDefinition-bp-device.xlsx
+++ b/docs/StructureDefinition-bp-device.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-bp-device.xlsx
+++ b/docs/StructureDefinition-bp-device.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.4.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-bp-device.xlsx
+++ b/docs/StructureDefinition-bp-device.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.1</t>
+    <t>0.4.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-bp-device.xlsx
+++ b/docs/StructureDefinition-bp-device.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2390" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2390" uniqueCount="377">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.2</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -352,7 +352,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -450,13 +450,6 @@
     <t>Cuff Size</t>
   </si>
   <si>
-    <t>The size of pressure cuff used to measure blood pressure.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>Device.modifierExtension</t>
   </si>
   <si>
@@ -508,7 +501,7 @@
     <t>Device.definition</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DeviceDefinition)
+    <t xml:space="preserve">Reference(DeviceDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -531,7 +524,7 @@
     <t>Unique device identifier (UDI) assigned to device label or package.  Note that the Device may include multiple udiCarriers as it either may include just the udiCarrier for the jurisdiction it is sold, or for multiple jurisdictions it could have been sold.</t>
   </si>
   <si>
-    <t>UDI may identify an unique instance of a device, or it may only identify the type of the device.  See [UDI mappings](device-mappings.html#udi) for a complete mapping of UDI parts to Device.</t>
+    <t>UDI may identify an unique instance of a device, or it may only identify the type of the device.  See [UDI mappings](http://hl7.org/fhir/R4/device-mappings.html#udi) for a complete mapping of UDI parts to Device.</t>
   </si>
   <si>
     <t>.id and .code</t>
@@ -766,7 +759,7 @@
     <t>The availability status reason of the device.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/device-status-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/device-status-reason|4.0.1</t>
   </si>
   <si>
     <t>Device.distinctIdentifier</t>
@@ -1077,7 +1070,7 @@
     <t>Device.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient)
+    <t xml:space="preserve">Reference(Patient|4.0.1)
 </t>
   </si>
   <si>
@@ -1099,7 +1092,7 @@
     <t>Device.owner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1137,7 +1130,7 @@
     <t>Device.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1199,7 +1192,7 @@
     <t>Device.parent</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device)
+    <t xml:space="preserve">Reference(Device|4.0.1)
 </t>
   </si>
   <si>
@@ -1547,7 +1540,7 @@
     <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="34.984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="43.75" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="44.546875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="16.2578125" customWidth="true" bestFit="true"/>
@@ -2597,7 +2590,7 @@
         <v>139</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2657,7 +2650,7 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>135</v>
@@ -2674,14 +2667,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2703,16 +2696,16 @@
         <v>129</v>
       </c>
       <c r="L11" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="N11" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="O11" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>20</v>
@@ -2761,7 +2754,7 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -2787,10 +2780,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2813,16 +2806,16 @@
         <v>20</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2872,7 +2865,7 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -2887,21 +2880,21 @@
         <v>96</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AM12" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>156</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2924,13 +2917,13 @@
         <v>20</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2981,7 +2974,7 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -3007,10 +3000,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3033,16 +3026,16 @@
         <v>85</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3092,7 +3085,7 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3107,10 +3100,10 @@
         <v>96</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>20</v>
@@ -3118,10 +3111,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3144,13 +3137,13 @@
         <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3201,7 +3194,7 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3216,7 +3209,7 @@
         <v>20</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>20</v>
@@ -3227,14 +3220,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3256,13 +3249,13 @@
         <v>129</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3312,7 +3305,7 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3327,7 +3320,7 @@
         <v>135</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>20</v>
@@ -3338,14 +3331,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3367,16 +3360,16 @@
         <v>129</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>20</v>
@@ -3425,7 +3418,7 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3451,14 +3444,14 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3477,13 +3470,13 @@
         <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3534,7 +3527,7 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3549,25 +3542,25 @@
         <v>96</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>188</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3589,10 +3582,10 @@
         <v>98</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3643,7 +3636,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3658,21 +3651,21 @@
         <v>96</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3698,14 +3691,14 @@
         <v>98</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>20</v>
@@ -3754,7 +3747,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3769,7 +3762,7 @@
         <v>96</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>20</v>
@@ -3780,14 +3773,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3806,16 +3799,16 @@
         <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3865,7 +3858,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3880,25 +3873,25 @@
         <v>96</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -3917,16 +3910,16 @@
         <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N22" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3976,7 +3969,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -3991,21 +3984,21 @@
         <v>96</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4031,14 +4024,14 @@
         <v>104</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>20</v>
@@ -4063,14 +4056,14 @@
         <v>20</v>
       </c>
       <c r="X23" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="Z23" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="Y23" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>219</v>
-      </c>
       <c r="AA23" t="s" s="2">
         <v>20</v>
       </c>
@@ -4087,7 +4080,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4102,7 +4095,7 @@
         <v>96</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>20</v>
@@ -4113,10 +4106,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4142,13 +4135,13 @@
         <v>104</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N24" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4174,13 +4167,13 @@
         <v>20</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>20</v>
@@ -4198,7 +4191,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4213,10 +4206,10 @@
         <v>96</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>20</v>
@@ -4224,10 +4217,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4250,13 +4243,13 @@
         <v>20</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4283,14 +4276,14 @@
         <v>20</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="Z25" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="Y25" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>235</v>
-      </c>
       <c r="AA25" t="s" s="2">
         <v>20</v>
       </c>
@@ -4307,7 +4300,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4325,7 +4318,7 @@
         <v>20</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>20</v>
@@ -4333,14 +4326,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4359,16 +4352,16 @@
         <v>20</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4418,7 +4411,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4433,21 +4426,21 @@
         <v>96</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4470,13 +4463,13 @@
         <v>20</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4527,7 +4520,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4542,10 +4535,10 @@
         <v>96</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>127</v>
@@ -4553,10 +4546,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4579,13 +4572,13 @@
         <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4636,7 +4629,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4651,21 +4644,21 @@
         <v>96</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4688,13 +4681,13 @@
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4745,7 +4738,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4760,21 +4753,21 @@
         <v>96</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4797,13 +4790,13 @@
         <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4854,7 +4847,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4869,21 +4862,21 @@
         <v>96</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4906,16 +4899,16 @@
         <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="N31" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4965,7 +4958,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -4980,10 +4973,10 @@
         <v>96</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>20</v>
@@ -4991,10 +4984,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5017,13 +5010,13 @@
         <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5074,7 +5067,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5100,10 +5093,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5126,13 +5119,13 @@
         <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5183,7 +5176,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5198,7 +5191,7 @@
         <v>20</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>20</v>
@@ -5209,14 +5202,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5238,13 +5231,13 @@
         <v>129</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5294,7 +5287,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5309,7 +5302,7 @@
         <v>135</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>20</v>
@@ -5320,14 +5313,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5349,16 +5342,16 @@
         <v>129</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>20</v>
@@ -5407,7 +5400,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5433,14 +5426,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5459,13 +5452,13 @@
         <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5516,7 +5509,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>84</v>
@@ -5542,10 +5535,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5571,10 +5564,10 @@
         <v>104</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5601,13 +5594,13 @@
         <v>20</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>20</v>
@@ -5625,7 +5618,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>84</v>
@@ -5640,10 +5633,10 @@
         <v>96</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>20</v>
@@ -5651,10 +5644,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5677,13 +5670,13 @@
         <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5734,7 +5727,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -5749,10 +5742,10 @@
         <v>96</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>20</v>
@@ -5760,10 +5753,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5786,16 +5779,16 @@
         <v>20</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5845,7 +5838,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -5860,10 +5853,10 @@
         <v>96</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>20</v>
@@ -5871,10 +5864,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5897,13 +5890,13 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5930,11 +5923,11 @@
         <v>20</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Y40" s="2"/>
       <c r="Z40" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>20</v>
@@ -5952,7 +5945,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -5978,10 +5971,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6004,13 +5997,13 @@
         <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6061,7 +6054,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6087,10 +6080,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6113,13 +6106,13 @@
         <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6170,7 +6163,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6185,7 +6178,7 @@
         <v>20</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>20</v>
@@ -6196,14 +6189,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6225,13 +6218,13 @@
         <v>129</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6281,7 +6274,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6296,7 +6289,7 @@
         <v>135</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>20</v>
@@ -6307,14 +6300,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6336,16 +6329,16 @@
         <v>129</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>20</v>
@@ -6394,7 +6387,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6420,14 +6413,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6446,13 +6439,13 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6503,7 +6496,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>84</v>
@@ -6529,10 +6522,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6555,13 +6548,13 @@
         <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6612,7 +6605,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6630,7 +6623,7 @@
         <v>20</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>20</v>
@@ -6638,10 +6631,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6664,13 +6657,13 @@
         <v>20</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6721,7 +6714,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -6747,10 +6740,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6773,13 +6766,13 @@
         <v>20</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6830,7 +6823,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -6845,7 +6838,7 @@
         <v>20</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>20</v>
@@ -6856,14 +6849,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -6885,13 +6878,13 @@
         <v>129</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -6941,7 +6934,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -6956,7 +6949,7 @@
         <v>135</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>20</v>
@@ -6967,14 +6960,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -6996,16 +6989,16 @@
         <v>129</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>20</v>
@@ -7054,7 +7047,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7080,14 +7073,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7106,13 +7099,13 @@
         <v>20</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7163,7 +7156,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7189,10 +7182,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7215,13 +7208,13 @@
         <v>20</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7272,7 +7265,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7290,7 +7283,7 @@
         <v>20</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>20</v>
@@ -7298,10 +7291,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7324,13 +7317,13 @@
         <v>20</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7381,7 +7374,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>84</v>
@@ -7407,10 +7400,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7433,13 +7426,13 @@
         <v>20</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7490,7 +7483,7 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -7516,10 +7509,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7542,13 +7535,13 @@
         <v>20</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7599,7 +7592,7 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -7614,7 +7607,7 @@
         <v>20</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>20</v>
@@ -7625,14 +7618,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -7654,13 +7647,13 @@
         <v>129</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -7710,7 +7703,7 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -7725,7 +7718,7 @@
         <v>135</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>20</v>
@@ -7736,14 +7729,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -7765,16 +7758,16 @@
         <v>129</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>20</v>
@@ -7823,7 +7816,7 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -7849,10 +7842,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7875,13 +7868,13 @@
         <v>20</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -7932,7 +7925,7 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>84</v>
@@ -7958,10 +7951,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7984,13 +7977,13 @@
         <v>20</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8041,7 +8034,7 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -8067,10 +8060,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8093,13 +8086,13 @@
         <v>20</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8150,7 +8143,7 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -8176,10 +8169,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8202,17 +8195,17 @@
         <v>20</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>20</v>
@@ -8261,7 +8254,7 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -8276,10 +8269,10 @@
         <v>96</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>20</v>
@@ -8287,10 +8280,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8313,13 +8306,13 @@
         <v>20</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8370,7 +8363,7 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -8385,10 +8378,10 @@
         <v>96</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>20</v>
@@ -8396,10 +8389,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8422,16 +8415,16 @@
         <v>20</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -8481,7 +8474,7 @@
         <v>20</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -8496,10 +8489,10 @@
         <v>96</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>20</v>
@@ -8507,10 +8500,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8533,17 +8526,17 @@
         <v>20</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>20</v>
@@ -8592,7 +8585,7 @@
         <v>20</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -8607,10 +8600,10 @@
         <v>96</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>20</v>
@@ -8618,10 +8611,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8647,13 +8640,13 @@
         <v>98</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="N65" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -8703,7 +8696,7 @@
         <v>20</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
@@ -8718,10 +8711,10 @@
         <v>96</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>20</v>
@@ -8729,10 +8722,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8755,13 +8748,13 @@
         <v>20</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -8812,7 +8805,7 @@
         <v>20</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -8827,7 +8820,7 @@
         <v>96</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>20</v>
@@ -8838,10 +8831,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8864,13 +8857,13 @@
         <v>85</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -8921,7 +8914,7 @@
         <v>20</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -8936,7 +8929,7 @@
         <v>96</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>20</v>
@@ -8947,10 +8940,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -8973,13 +8966,13 @@
         <v>20</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9030,7 +9023,7 @@
         <v>20</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>

--- a/docs/StructureDefinition-bp-device.xlsx
+++ b/docs/StructureDefinition-bp-device.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0</t>
+    <t>0.5.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-bp-device.xlsx
+++ b/docs/StructureDefinition-bp-device.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.1</t>
+    <t>0.5.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-bp-device.xlsx
+++ b/docs/StructureDefinition-bp-device.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.2</t>
+    <t>0.5.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-bp-device.xlsx
+++ b/docs/StructureDefinition-bp-device.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.3</t>
+    <t>0.5.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-bp-device.xlsx
+++ b/docs/StructureDefinition-bp-device.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.4</t>
+    <t>0.5.5</t>
   </si>
   <si>
     <t>Name</t>
